--- a/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/withholding_tax_rate.xlsx
+++ b/z0bug_odoo/build/lib.linux-x86_64-2.7/z0bug_odoo/data/withholding_tax_rate.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">withholding_tax_id</t>
   </si>
   <si>
@@ -43,16 +46,34 @@
     <t xml:space="preserve">z0bug.wt_1038_1</t>
   </si>
   <si>
+    <t xml:space="preserve">G=='zero'</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.wt_1038</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
+    <t xml:space="preserve">G!='zero'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.wt_enasarco_1_1</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.wt_enasarco</t>
+    <t xml:space="preserve">z0bug.wt_enasarco_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.wt_1040-23A_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.wt_1040-23A</t>
   </si>
 </sst>
 </file>
@@ -67,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,18 +170,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,47 +198,104 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
+      <c r="D7" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
